--- a/class_diagram/descriptions/class_uebersicht.xlsx
+++ b/class_diagram/descriptions/class_uebersicht.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://portolan-my.sharepoint.com/personal/anuerk_portolancs_com/Documents/DHBW/Semester 3/SE - Theoretische Informatik/se_exploding_kittens/class_diagram/descriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_AD4DB114E441178AC67DF40166D4C4C0693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F7426DC-212E-4B31-A9B3-104E054D669C}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="11_AD4DB114E441178AC67DF40166D4C4C0693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32BFBC7E-B8F1-4C2D-A3AA-D2098275F82F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Klassen Übersicht" sheetId="1" r:id="rId1"/>
+    <sheet name="Klassen Assoziationen" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -36,9 +46,6 @@
     <t>Unterklassen</t>
   </si>
   <si>
-    <t>Wichtige Attribute</t>
-  </si>
-  <si>
     <t>Spieler</t>
   </si>
   <si>
@@ -46,6 +53,135 @@
   </si>
   <si>
     <t>Hand</t>
+  </si>
+  <si>
+    <t>Kartenstapel</t>
+  </si>
+  <si>
+    <t>Spielzug</t>
+  </si>
+  <si>
+    <t>Spiel</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>karte</t>
+  </si>
+  <si>
+    <t>spieler, kartenstapel</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>aktionskarte</t>
+  </si>
+  <si>
+    <t>exploding kitten</t>
+  </si>
+  <si>
+    <t>Paarkarten</t>
+  </si>
+  <si>
+    <t>aktionskarte, exploding kitten, paarkarte</t>
+  </si>
+  <si>
+    <t>nö, angriff, hops, wunsch, mischen, blick in die zukunft</t>
+  </si>
+  <si>
+    <t>regenbogen rülpsende Katze, Bartze, Tacocat, Katzelone, Behaarte Katzoffel</t>
+  </si>
+  <si>
+    <t>anzahl spieler, karten</t>
+  </si>
+  <si>
+    <t>karten übrig zum ziehen</t>
+  </si>
+  <si>
+    <t>Wichtige Eigenschaften</t>
+  </si>
+  <si>
+    <t>Anzahl Karten</t>
+  </si>
+  <si>
+    <t>Aufdruck</t>
+  </si>
+  <si>
+    <t>Aktion</t>
+  </si>
+  <si>
+    <t>Aktion und kombination</t>
+  </si>
+  <si>
+    <t>name, hand, Ausgeschieden</t>
+  </si>
+  <si>
+    <t>Ein Spiel Exploding Kittens mit einer zu Beginn definierten Anzahl an Spielern. Das spiel endet sobald alle außer einem Spielder ausgeschieden sind.</t>
+  </si>
+  <si>
+    <t>Angemeldeter Spieler der eine Hand von Karten hat</t>
+  </si>
+  <si>
+    <t>Der Spieler legt keine oder mehr Karten und zieht eine oder keine Karte vom Stapel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Stapel von dem Karten gezogen, oder auf den Karten abgelegt wwerden können </t>
+  </si>
+  <si>
+    <t>Ein Set aus Karten die einem Spieler gehören</t>
+  </si>
+  <si>
+    <t>Hat eine Aktion wenn mehrere vom gleichen Typ auf der Hand sind</t>
+  </si>
+  <si>
+    <t>Hat eine Aktion (ggf. in Abhänigkeit von Paar). Kann von einem Spieler abgelegt oder gezogen werden</t>
+  </si>
+  <si>
+    <t>Kann Spieler zum ausscheiden brigen. Kann zurück in den Stapel gelegt werden</t>
+  </si>
+  <si>
+    <t>Klasse 1</t>
+  </si>
+  <si>
+    <t>Assoziation</t>
+  </si>
+  <si>
+    <t>Klasse 2</t>
+  </si>
+  <si>
+    <t>Multiplizität 1</t>
+  </si>
+  <si>
+    <t>Multiplizität 2</t>
+  </si>
+  <si>
+    <t>beinhaltet</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hat </t>
+  </si>
+  <si>
+    <t>Karten</t>
+  </si>
+  <si>
+    <t>0..*</t>
+  </si>
+  <si>
+    <t>1..56</t>
+  </si>
+  <si>
+    <t>1..5</t>
+  </si>
+  <si>
+    <t>ist</t>
   </si>
 </sst>
 </file>
@@ -89,9 +225,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -372,20 +509,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="120.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,26 +536,400 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <f>B6-(B8+B9)</f>
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA073EC-C616-4989-90A6-0DCED3E18997}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>